--- a/lista municipios.xlsx
+++ b/lista municipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Esteban\Web Scraping\booking_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C171D-F651-450D-8BF4-00CC54C0B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DA5CD-832E-4910-98C5-9492DF868523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1ED7EE49-AFF3-42A1-AA68-204F6DE1AEB3}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28124545-FABC-4D6E-8026-0883E6854C94}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1099,7 +1099,7 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1117,7 +1117,7 @@
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1135,7 +1135,7 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1144,7 +1144,7 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1153,7 +1153,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1162,7 +1162,7 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1926,5 +1926,6 @@
     <mergeCell ref="A59:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lista municipios.xlsx
+++ b/lista municipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Esteban\Web Scraping\booking_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DA5CD-832E-4910-98C5-9492DF868523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C467CF-CEA1-4A35-956C-7BAE34543032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1ED7EE49-AFF3-42A1-AA68-204F6DE1AEB3}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28124545-FABC-4D6E-8026-0883E6854C94}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1191,7 +1191,7 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1200,7 +1200,7 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1209,7 +1209,7 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1218,7 +1218,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1236,7 +1236,7 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1263,7 +1263,7 @@
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -1272,7 +1272,7 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -1281,7 +1281,7 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1290,7 +1290,7 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -1308,7 +1308,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -1326,7 +1326,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="2" t="s">

--- a/lista municipios.xlsx
+++ b/lista municipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Esteban\Web Scraping\booking_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C467CF-CEA1-4A35-956C-7BAE34543032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FA1DD-8F1E-4441-AE37-2D0FE9B21CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1ED7EE49-AFF3-42A1-AA68-204F6DE1AEB3}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28124545-FABC-4D6E-8026-0883E6854C94}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lista municipios.xlsx
+++ b/lista municipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Esteban\Web Scraping\booking_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FA1DD-8F1E-4441-AE37-2D0FE9B21CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD22F9B-A69F-4E94-887C-D73C9C7DAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1ED7EE49-AFF3-42A1-AA68-204F6DE1AEB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>Bajo Cauca</t>
   </si>
@@ -438,6 +438,15 @@
   </si>
   <si>
     <t>Sabaneta</t>
+  </si>
+  <si>
+    <t>poner búsqueda flexible</t>
+  </si>
+  <si>
+    <t>limpiar datos, puede ser buscar repetidos y quitar los más lejanos la centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -963,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28124545-FABC-4D6E-8026-0883E6854C94}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,25 +1842,25 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>123</v>
       </c>
@@ -1859,55 +1868,64 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="4" t="s">
         <v>133</v>

--- a/lista municipios.xlsx
+++ b/lista municipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Esteban\Web Scraping\booking_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD22F9B-A69F-4E94-887C-D73C9C7DAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F45AB3-FD8A-460A-854C-0F10E5D432C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1ED7EE49-AFF3-42A1-AA68-204F6DE1AEB3}"/>
   </bookViews>
@@ -446,7 +446,7 @@
     <t>limpiar datos, puede ser buscar repetidos y quitar los más lejanos la centro</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>revisar municipios</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
